--- a/data/data_dump_spellchecked.xlsx
+++ b/data/data_dump_spellchecked.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\finalproject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4063D824-7326-4E6B-AC3B-C32504235098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88521372-4833-447A-A284-2FEB296F0834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{716B8A15-0A8A-405C-827E-E6324A515ECE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{716B8A15-0A8A-405C-827E-E6324A515ECE}"/>
   </bookViews>
   <sheets>
     <sheet name="Matematika SMA" sheetId="11" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3619" uniqueCount="1588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="1595">
   <si>
     <t>text</t>
   </si>
@@ -2749,9 +2749,6 @@
     <t>Berikut ini, yang termasuk kecakapan khusus yang ada dalam pramuka siaga yaitu ...</t>
   </si>
   <si>
-    <t>Buah kelapa dapat bertahan lama dalam keadaan apapun. Ini memiliki arti, bahwa anggota pramuka ...</t>
-  </si>
-  <si>
     <t>Jauh sebelum adanya telepon, dahulu orang menggunakan ... untuk berkomunikasi antar warga .</t>
   </si>
   <si>
@@ -2767,13 +2764,7 @@
     <t>Nina menjadi pemimpin barung sedangkan Deli menjadi wakil pemimpin barung. Nama lain dari barung adalah ...</t>
   </si>
   <si>
-    <t>Nina senang sekali mengikuti kegiatan Pramuka. Karena dapat meningkatkan ....</t>
-  </si>
-  <si>
     <t>Pramuka Siaga diikuti oleh anak berusia ...</t>
-  </si>
-  <si>
-    <t>Pramuka siaga itu berani dan tidak putus asa. Ini merupakan bunyi dari ...</t>
   </si>
   <si>
     <t>Pramuka singkatan dari ...</t>
@@ -3815,16 +3806,10 @@
     <t>Paragraf atas termasuk struktur teks observasi bagian.</t>
   </si>
   <si>
-    <t>Wayang adalah seni pertunjukkan yang telah ditetapkan sebagai warisan budaya asli Indonesia. UNESCO, lembaga yang mengurusi kebudayaan dari PBB. Yaitu pada tanggal.</t>
-  </si>
-  <si>
     <t>Bagian di atas termasuk struktur teks observasi ialah.</t>
   </si>
   <si>
     <t>Kalimat kompleks atau majemuk adalah..</t>
-  </si>
-  <si>
-    <t>Bahasa adalah bunyi atau suara yang dikeluarkan manusia melalui alat ucap berbicara yang bertujuan untuk menyimpan pesan. Keinginan, ide kepada orang lain sehingga orang lain memahami maksudnya. Ini pengertian dari</t>
   </si>
   <si>
     <t>Bahasa yang sesuai dengan kaidah Bahasa Indonesia yang berlaku dengan EYD adalah.</t>
@@ -4871,9 +4856,6 @@
     <t xml:space="preserve">Jika ada 50 soal dan Budi menjawab benar 25 soal dan 10 soal tidak dijawab, maka nilai Budi adalah </t>
   </si>
   <si>
-    <t>0perasi " # " artinya kuadratkanlah bilangan pertama, kemudian kurangilah hasilnya dengan 3 kali bilangan kedua ". Nilai dari -5 # -4 adalah.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Harga 6 meter kain Rp. 90.000,00. Harga 25 meter kain adalah </t>
   </si>
   <si>
@@ -5010,9 +4992,6 @@
   </si>
   <si>
     <t xml:space="preserve">Kutipan teks prosedur di atas termasuk ke dalam struktur </t>
-  </si>
-  <si>
-    <t xml:space="preserve">								Loreng memiliki watak </t>
   </si>
   <si>
     <t xml:space="preserve">Berdasarkan ciri-ciri tersebut, yang merupakan ciri-ciri syair yaitu </t>
@@ -5423,15 +5402,6 @@
  D.  Walaupun sudah tua tuntutlah ilmu </t>
   </si>
   <si>
-    <t>Saat pergi ke Ciwidey, Fahri menemukan banyak rambu lalu lintas ini, Fahri harus berhati €“ hati karena jalan nya ...</t>
-  </si>
-  <si>
-    <t>Salah satu bahan yang dahulu digunakan oleh orang €“ orang untuk menutup tubuh yaitu ...</t>
-  </si>
-  <si>
-    <t>Warna €“ warna yang digunakan dalam tanda kecakapan khusus diantaranya ...</t>
-  </si>
-  <si>
     <t xml:space="preserve">A. Tokoh cerita
  B. Kalimat inti
  C. Kesimpulan cerita
@@ -5466,9 +5436,6 @@
     <t xml:space="preserve"> Ide yang sangat bagus. Mengapa kamu tidak bercerita terlebih dahulu. Kesalahan penulisan kalimat langsung tersebut, adalah </t>
   </si>
   <si>
-    <t xml:space="preserve">Cermatilah kutipan surat pribadi berikut. Oh ya, Ana, bagaimana kegiatan ekstrakurikuler di sekolahmu ? Apakah kamu ikut ? Kalau aku masih seperti dulu, masih aktif dalam pramuka.()Salam manis, Lia Kalimat penutup surat yang tepat agar Ana segera membalas surat Lia adalah </t>
-  </si>
-  <si>
     <t>Amanat yang sesuai dengan isi puisi di atas adalah....</t>
   </si>
   <si>
@@ -5476,9 +5443,6 @@
   </si>
   <si>
     <t>Saat pulang sekolah, Bilal selalu menyeberang di ...</t>
-  </si>
-  <si>
-    <t>Salah satu alat komunikasi yang berkembang di zaman sekarang adalah penggunaan WA dan Instagram. WA dan Instagram termasuk media ...</t>
   </si>
   <si>
     <t>Suatu pernyataan yang muncul pada sebuah cerita yang memungkinkan pembaca memahami inti sari cerita dinamakan ..</t>
@@ -5830,9 +5794,6 @@
  D. membahas objek secara bersifat umum </t>
   </si>
   <si>
-    <t>Secara garis besar buku yang kita baca dikelompokkan menjadi dua bagian, yaitu buku fiksi dan buku nonfiksi. Yang termasuk unsur buku fiksi adalah ...</t>
-  </si>
-  <si>
     <t xml:space="preserve">A. Isi buku.                        
  B. Sistematika
  C. Rincian subbab buku                
@@ -5944,9 +5905,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bacalah teks cerita fabel berikut dengan sekasama! 									 Burung Gagak yang HausPada suatu hari yang panas, seekor burung gagak kehausan, terbang di atas ladang untuk mencari air. Lama sekali ia terbang untuk mencari air, tetapi tidak menemukannya. Tiba-tiba ia melihat sebuah tempayan air di bawah sana. Ia pun terbang ke bawah untuk melihat kalau-kalau ada air di dalamnya.ia senang karena dapat melihat air di dalam tempayan itu. Kemudian, gagak itu berusaha memasukkan kepalanya ke dalam tempayan. Sayang, leher tempayan itu terlalu sempit untuk kepalanya. Gagak berusaha untuk menggulingkan tempayan itu agar airnya mengalir. Namun, tempayan itu terlalu berat baginya.Gagak itu lalu berpikir keras sebentar. Ketika menengok ke kanan dan ke kiri, ia melihat beberapa kerikil. Tiba-tiba terlintas dalam pikirannya gagasan yang bagus. Ia pun mulai memunguti kerikil itu satu demi satu, lalu memasukan setiap kerikil itu ke dalam tempayan. Semakin banyak kerikil yang dimasukkan, air pun naik. Oleh karena itu, burung gagak itu bisa meminum air dari tempayan tersebut.Dikutip:http://www.rumahdongeng.com./cerita-anak.php=2017 						 </t>
-  </si>
-  <si>
-    <t>Jenis €“ jenis teks fabel Burung Gagak yang Haus tersebut adalah ...</t>
   </si>
   <si>
     <t xml:space="preserve">Perhatikan pernyataan berikut!          Akhirnya, Induk Domba berhasil menyelamatkan anak-anak Domba dari cengkraman Serigala jahat. Serigala itu tewas karena kerakusannya. </t>
@@ -7078,6 +7036,69 @@
   </si>
   <si>
     <t>Pada segitiga ABC diketahui panjang sisi AB = 10 cm, sisi AC = 12 cm, dan sin B = maka nilai cos C adalah .......</t>
+  </si>
+  <si>
+    <t>operasi " # " artinya kuadratkanlah bilangan pertama, kemudian kurangilah hasilnya dengan 3 kali bilangan kedua ". Nilai dari -5 # -4 adalah.</t>
+  </si>
+  <si>
+    <t>UNESCO, lembaga yang mengurusi kebudayaan dari PBB. Yaitu pada tanggal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wayang adalah seni pertunjukkan yang telah ditetapkan sebagai warisan budaya asli Indonesia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ini pengertian dari</t>
+  </si>
+  <si>
+    <t>Bahasa adalah bunyi atau suara yang dikeluarkan manusia melalui alat ucap berbicara yang bertujuan untuk menyimpan pesan. Keinginan, ide kepada orang lain sehingga orang lain memahami maksudnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yang termasuk unsur buku fiksi adalah ...</t>
+  </si>
+  <si>
+    <t>Secara garis besar buku yang kita baca dikelompokkan menjadi dua bagian, yaitu buku fiksi dan buku nonfiksi.</t>
+  </si>
+  <si>
+    <t>Loreng memiliki watak</t>
+  </si>
+  <si>
+    <t>jenis teks fabel Burung Gagak yang Haus tersebut adalah ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kalimat penutup surat yang tepat agar Ana segera membalas surat Lia adalah </t>
+  </si>
+  <si>
+    <t>Cermatilah kutipan surat pribadi berikut. Oh ya, Ana, bagaimana kegiatan ekstrakurikuler di sekolahmu ? Apakah kamu ikut ? Kalau aku masih seperti dulu, masih aktif dalam pramuka.()Salam manis, Lia</t>
+  </si>
+  <si>
+    <t>Saat pergi ke Ciwidey, Fahri menemukan banyak rambu lalu lintas ini, Fahri harus berhati-hati karena jalan nya ...</t>
+  </si>
+  <si>
+    <t>Ini memiliki arti, bahwa anggota pramuka ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buah kelapa dapat bertahan lama dalam keadaan apapun. </t>
+  </si>
+  <si>
+    <t>Nina senang sekali mengikuti kegiatan Pramuka Karena dapat meningkatkan ....</t>
+  </si>
+  <si>
+    <t>Ini merupakan bunyi dari ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pramuka siaga itu berani dan tidak putus asa. </t>
+  </si>
+  <si>
+    <t>WA dan Instagram termasuk media ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salah satu alat komunikasi yang berkembang di zaman sekarang adalah penggunaan WA dan Instagram. </t>
+  </si>
+  <si>
+    <t>Salah satu bahan yang dahulu digunakan oleh orang-orang untuk menutup tubuh yaitu ...</t>
+  </si>
+  <si>
+    <t>Warna-warna yang digunakan dalam tanda kecakapan khusus diantaranya ...</t>
   </si>
 </sst>
 </file>
@@ -7587,8 +7608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0721E6D-7C05-4701-825D-DC8B003C20EA}">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7621,13 +7642,13 @@
     </row>
     <row r="2" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>1567</v>
+        <v>1553</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>6</v>
@@ -7641,10 +7662,10 @@
         <v>567</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>9</v>
@@ -7658,10 +7679,10 @@
         <v>567</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>10</v>
@@ -7672,13 +7693,13 @@
     </row>
     <row r="5" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>1568</v>
+        <v>1554</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>1569</v>
+        <v>1555</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>9</v>
@@ -7690,13 +7711,13 @@
     <row r="6" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>60</v>
@@ -7705,13 +7726,13 @@
     <row r="7" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>60</v>
@@ -7722,10 +7743,10 @@
         <v>567</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>9</v>
@@ -7739,10 +7760,10 @@
         <v>567</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>9</v>
@@ -7756,10 +7777,10 @@
         <v>567</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>1570</v>
+        <v>1556</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>7</v>
@@ -7773,10 +7794,10 @@
         <v>567</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>10</v>
@@ -7788,10 +7809,10 @@
     <row r="12" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>6</v>
@@ -7803,10 +7824,10 @@
     <row r="13" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>1571</v>
+        <v>1557</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>7</v>
@@ -7818,10 +7839,10 @@
     <row r="14" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="16" t="s">
-        <v>1572</v>
+        <v>1558</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>7</v>
@@ -7832,10 +7853,10 @@
     </row>
     <row r="15" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>9</v>
@@ -7846,10 +7867,10 @@
     </row>
     <row r="16" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>1573</v>
+        <v>1559</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>9</v>
@@ -7860,10 +7881,10 @@
     </row>
     <row r="17" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>8</v>
@@ -7874,10 +7895,10 @@
     </row>
     <row r="18" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>1571</v>
+        <v>1557</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>6</v>
@@ -7888,10 +7909,10 @@
     </row>
     <row r="19" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>9</v>
@@ -7902,10 +7923,10 @@
     </row>
     <row r="20" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>1574</v>
+        <v>1560</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>10</v>
@@ -7916,10 +7937,10 @@
     </row>
     <row r="21" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>1571</v>
+        <v>1557</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>7</v>
@@ -7930,10 +7951,10 @@
     </row>
     <row r="22" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>1573</v>
+        <v>1559</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>9</v>
@@ -7944,10 +7965,10 @@
     </row>
     <row r="23" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>1575</v>
+        <v>1561</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>6</v>
@@ -7959,10 +7980,10 @@
     </row>
     <row r="24" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>8</v>
@@ -7973,10 +7994,10 @@
     </row>
     <row r="25" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="17" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>8</v>
@@ -7987,10 +8008,10 @@
     </row>
     <row r="26" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>1576</v>
+        <v>1562</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>6</v>
@@ -8001,10 +8022,10 @@
     </row>
     <row r="27" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="17" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>1571</v>
+        <v>1557</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>9</v>
@@ -8015,10 +8036,10 @@
     </row>
     <row r="28" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>7</v>
@@ -8029,10 +8050,10 @@
     </row>
     <row r="29" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="17" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>10</v>
@@ -8046,10 +8067,10 @@
         <v>567</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>1577</v>
+        <v>1563</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>7</v>
@@ -8060,11 +8081,11 @@
     </row>
     <row r="31" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="17" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="24" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E31" s="25" t="s">
         <v>257</v>
@@ -8072,11 +8093,11 @@
     </row>
     <row r="32" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="17" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="24" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E32" s="25" t="s">
         <v>257</v>
@@ -8084,11 +8105,11 @@
     </row>
     <row r="33" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="17" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="24" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E33" s="25" t="s">
         <v>257</v>
@@ -8096,11 +8117,11 @@
     </row>
     <row r="34" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="17" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="24" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E34" s="25" t="s">
         <v>257</v>
@@ -8108,11 +8129,11 @@
     </row>
     <row r="35" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="17" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="24" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E35" s="25" t="s">
         <v>257</v>
@@ -8120,11 +8141,11 @@
     </row>
     <row r="36" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="17" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="24" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E36" s="25" t="s">
         <v>257</v>
@@ -8132,11 +8153,11 @@
     </row>
     <row r="37" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="24" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E37" s="25" t="s">
         <v>257</v>
@@ -8145,11 +8166,11 @@
     <row r="38" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="24" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>257</v>
@@ -8158,11 +8179,11 @@
     <row r="39" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="24" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E39" s="25" t="s">
         <v>257</v>
@@ -8171,11 +8192,11 @@
     <row r="40" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="24" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E40" s="25" t="s">
         <v>257</v>
@@ -8183,11 +8204,11 @@
     </row>
     <row r="41" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="32" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="C41" s="32"/>
       <c r="D41" s="28" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>257</v>
@@ -8195,10 +8216,10 @@
     </row>
     <row r="42" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E42" s="26" t="s">
         <v>257</v>
@@ -8206,10 +8227,10 @@
     </row>
     <row r="43" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E43" s="26" t="s">
         <v>257</v>
@@ -8217,10 +8238,10 @@
     </row>
     <row r="44" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E44" s="26" t="s">
         <v>257</v>
@@ -8228,10 +8249,10 @@
     </row>
     <row r="45" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E45" s="26" t="s">
         <v>257</v>
@@ -8239,10 +8260,10 @@
     </row>
     <row r="46" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E46" s="26" t="s">
         <v>257</v>
@@ -8250,10 +8271,10 @@
     </row>
     <row r="47" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E47" s="26" t="s">
         <v>257</v>
@@ -8261,10 +8282,10 @@
     </row>
     <row r="48" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E48" s="26" t="s">
         <v>257</v>
@@ -8272,10 +8293,10 @@
     </row>
     <row r="49" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E49" s="26" t="s">
         <v>257</v>
@@ -8283,10 +8304,10 @@
     </row>
     <row r="50" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E50" s="26" t="s">
         <v>257</v>
@@ -8297,10 +8318,10 @@
         <v>567</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>1578</v>
+        <v>1564</v>
       </c>
       <c r="D51" s="27" t="s">
         <v>7</v>
@@ -8311,13 +8332,13 @@
     </row>
     <row r="52" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
-        <v>1583</v>
+        <v>1569</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>1579</v>
+        <v>1565</v>
       </c>
       <c r="D52" s="27" t="s">
         <v>10</v>
@@ -8328,13 +8349,13 @@
     </row>
     <row r="53" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
-        <v>1584</v>
+        <v>1570</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="D53" s="28" t="s">
         <v>7</v>
@@ -8348,10 +8369,10 @@
         <v>567</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D54" s="27" t="s">
         <v>10</v>
@@ -8362,10 +8383,10 @@
     </row>
     <row r="55" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="32" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="D55" s="28" t="s">
         <v>8</v>
@@ -8376,10 +8397,10 @@
     </row>
     <row r="56" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="31" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>1580</v>
+        <v>1566</v>
       </c>
       <c r="D56" s="27" t="s">
         <v>10</v>
@@ -8390,10 +8411,10 @@
     </row>
     <row r="57" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="32" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>1571</v>
+        <v>1557</v>
       </c>
       <c r="D57" s="28" t="s">
         <v>8</v>
@@ -8404,10 +8425,10 @@
     </row>
     <row r="58" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="32" t="s">
-        <v>1587</v>
+        <v>1573</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="D58" s="28" t="s">
         <v>6</v>
@@ -8418,10 +8439,10 @@
     </row>
     <row r="59" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E59" s="26" t="s">
         <v>72</v>
@@ -8429,10 +8450,10 @@
     </row>
     <row r="60" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E60" s="26" t="s">
         <v>72</v>
@@ -8440,10 +8461,10 @@
     </row>
     <row r="61" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E61" s="26" t="s">
         <v>72</v>
@@ -8451,10 +8472,10 @@
     </row>
     <row r="62" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E62" s="26" t="s">
         <v>72</v>
@@ -8462,10 +8483,10 @@
     </row>
     <row r="63" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E63" s="26" t="s">
         <v>72</v>
@@ -8473,10 +8494,10 @@
     </row>
     <row r="64" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E64" s="26" t="s">
         <v>72</v>
@@ -8484,10 +8505,10 @@
     </row>
     <row r="65" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E65" s="26" t="s">
         <v>72</v>
@@ -8495,10 +8516,10 @@
     </row>
     <row r="66" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E66" s="26" t="s">
         <v>72</v>
@@ -8506,10 +8527,10 @@
     </row>
     <row r="67" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E67" s="26" t="s">
         <v>72</v>
@@ -8517,10 +8538,10 @@
     </row>
     <row r="68" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E68" s="26" t="s">
         <v>72</v>
@@ -8528,10 +8549,10 @@
     </row>
     <row r="69" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E69" s="26" t="s">
         <v>72</v>
@@ -8539,10 +8560,10 @@
     </row>
     <row r="70" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E70" s="26" t="s">
         <v>72</v>
@@ -8550,10 +8571,10 @@
     </row>
     <row r="71" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E71" s="26" t="s">
         <v>72</v>
@@ -8561,10 +8582,10 @@
     </row>
     <row r="72" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E72" s="26" t="s">
         <v>72</v>
@@ -8572,10 +8593,10 @@
     </row>
     <row r="73" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E73" s="26" t="s">
         <v>72</v>
@@ -8583,13 +8604,13 @@
     </row>
     <row r="74" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="32" t="s">
-        <v>1581</v>
+        <v>1567</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="D74" s="28" t="s">
         <v>8</v>
@@ -8600,13 +8621,13 @@
     </row>
     <row r="75" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
-        <v>1585</v>
+        <v>1571</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="D75" s="27" t="s">
         <v>10</v>
@@ -8617,10 +8638,10 @@
     </row>
     <row r="76" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E76" s="26" t="s">
         <v>272</v>
@@ -8628,10 +8649,10 @@
     </row>
     <row r="77" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="31" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>1571</v>
+        <v>1557</v>
       </c>
       <c r="D77" s="27" t="s">
         <v>8</v>
@@ -8642,13 +8663,13 @@
     </row>
     <row r="78" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="32" t="s">
-        <v>1586</v>
+        <v>1572</v>
       </c>
       <c r="B78" s="32" t="s">
-        <v>1582</v>
+        <v>1568</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="D78" s="28" t="s">
         <v>7</v>
@@ -8659,10 +8680,10 @@
     </row>
     <row r="79" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E79" s="26" t="s">
         <v>273</v>
@@ -8681,7 +8702,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8734,7 +8755,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>233</v>
@@ -8754,7 +8775,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>1225</v>
+        <v>1213</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>234</v>
@@ -8828,7 +8849,7 @@
         <v>283</v>
       </c>
       <c r="B8" t="s">
-        <v>1226</v>
+        <v>1214</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>284</v>
@@ -8948,7 +8969,7 @@
         <v>222</v>
       </c>
       <c r="B14" t="s">
-        <v>1227</v>
+        <v>1215</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>223</v>
@@ -8971,7 +8992,7 @@
         <v>225</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1482</v>
+        <v>1468</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -8988,7 +9009,7 @@
         <v>231</v>
       </c>
       <c r="B16" t="s">
-        <v>1228</v>
+        <v>1216</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>232</v>
@@ -9031,7 +9052,7 @@
         <v>208</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1483</v>
+        <v>1469</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -9268,7 +9289,7 @@
         <v>279</v>
       </c>
       <c r="B30" t="s">
-        <v>1229</v>
+        <v>1217</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>280</v>
@@ -9288,7 +9309,7 @@
         <v>281</v>
       </c>
       <c r="B31" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>282</v>
@@ -9308,10 +9329,10 @@
         <v>212</v>
       </c>
       <c r="B32" t="s">
-        <v>1231</v>
+        <v>1219</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1485</v>
+        <v>1471</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
@@ -9331,7 +9352,7 @@
         <v>227</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1484</v>
+        <v>1470</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -9588,7 +9609,7 @@
         <v>199</v>
       </c>
       <c r="B12" t="s">
-        <v>1232</v>
+        <v>1220</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>200</v>
@@ -9648,13 +9669,13 @@
     </row>
     <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1486</v>
+        <v>1472</v>
       </c>
       <c r="B2" t="s">
         <v>350</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1487</v>
+        <v>1473</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -9674,7 +9695,7 @@
         <v>360</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1493</v>
+        <v>1479</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -9807,7 +9828,7 @@
     </row>
     <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
       <c r="B11" t="s">
         <v>347</v>
@@ -9850,7 +9871,7 @@
         <v>356</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1494</v>
+        <v>1480</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -10003,7 +10024,7 @@
         <v>352</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1489</v>
+        <v>1475</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -10023,7 +10044,7 @@
         <v>354</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1490</v>
+        <v>1476</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -10043,7 +10064,7 @@
         <v>355</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1491</v>
+        <v>1477</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -10060,7 +10081,7 @@
         <v>357</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1492</v>
+        <v>1478</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
@@ -10080,7 +10101,7 @@
         <v>358</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1495</v>
+        <v>1481</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -10121,8 +10142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB29A854-72C8-4A98-85EF-AFE15513E655}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10154,10 +10175,10 @@
     </row>
     <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>7</v>
@@ -10168,10 +10189,10 @@
     </row>
     <row r="3" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>8</v>
@@ -10185,10 +10206,10 @@
         <v>567</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>7</v>
@@ -10202,10 +10223,10 @@
         <v>567</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>1532</v>
+        <v>1518</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>8</v>
@@ -10216,10 +10237,10 @@
     </row>
     <row r="6" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>1533</v>
+        <v>1519</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>8</v>
@@ -10230,10 +10251,10 @@
     </row>
     <row r="7" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>7</v>
@@ -10244,13 +10265,13 @@
     </row>
     <row r="8" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>1555</v>
+        <v>1541</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>8</v>
@@ -10264,10 +10285,10 @@
         <v>567</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>8</v>
@@ -10278,13 +10299,13 @@
     </row>
     <row r="10" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>1556</v>
+        <v>1542</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>7</v>
@@ -10295,10 +10316,10 @@
     </row>
     <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>7</v>
@@ -10309,10 +10330,10 @@
     </row>
     <row r="12" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>1534</v>
+        <v>1520</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>7</v>
@@ -10323,10 +10344,10 @@
     </row>
     <row r="13" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
-        <v>1535</v>
+        <v>1521</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>9</v>
@@ -10337,10 +10358,10 @@
     </row>
     <row r="14" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>1536</v>
+        <v>1522</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>9</v>
@@ -10351,10 +10372,10 @@
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>8</v>
@@ -10365,10 +10386,10 @@
     </row>
     <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>8</v>
@@ -10379,10 +10400,10 @@
     </row>
     <row r="17" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>7</v>
@@ -10393,10 +10414,10 @@
     </row>
     <row r="18" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>6</v>
@@ -10407,10 +10428,10 @@
     </row>
     <row r="19" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>1537</v>
+        <v>1523</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>9</v>
@@ -10421,10 +10442,10 @@
     </row>
     <row r="20" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>7</v>
@@ -10435,10 +10456,10 @@
     </row>
     <row r="21" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>9</v>
@@ -10449,10 +10470,10 @@
     </row>
     <row r="22" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>8</v>
@@ -10463,10 +10484,10 @@
     </row>
     <row r="23" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>8</v>
@@ -10477,10 +10498,10 @@
     </row>
     <row r="24" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="17" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>1538</v>
+        <v>1524</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>6</v>
@@ -10491,10 +10512,10 @@
     </row>
     <row r="25" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>9</v>
@@ -10505,10 +10526,10 @@
     </row>
     <row r="26" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="17" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>7</v>
@@ -10519,10 +10540,10 @@
     </row>
     <row r="27" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>7</v>
@@ -10533,10 +10554,10 @@
     </row>
     <row r="28" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="17" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>7</v>
@@ -10547,10 +10568,10 @@
     </row>
     <row r="29" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>9</v>
@@ -10561,10 +10582,10 @@
     </row>
     <row r="30" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>1534</v>
+        <v>1520</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>6</v>
@@ -10575,13 +10596,13 @@
     </row>
     <row r="31" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>1557</v>
+        <v>1543</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>1558</v>
+        <v>1544</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>8</v>
@@ -10592,13 +10613,13 @@
     </row>
     <row r="32" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>1559</v>
+        <v>1545</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>1539</v>
+        <v>1525</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>8</v>
@@ -10612,10 +10633,10 @@
         <v>567</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>1566</v>
+        <v>1552</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>6</v>
@@ -10625,12 +10646,12 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B34" s="17"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17" t="s">
+        <v>1546</v>
+      </c>
       <c r="C34" s="17" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>7</v>
@@ -10641,13 +10662,13 @@
     </row>
     <row r="35" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>1561</v>
+        <v>1547</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>6</v>
@@ -10658,13 +10679,13 @@
     </row>
     <row r="36" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>1562</v>
+        <v>1548</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>6</v>
@@ -10675,13 +10696,13 @@
     </row>
     <row r="37" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>1563</v>
+        <v>1549</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>8</v>
@@ -10692,13 +10713,13 @@
     </row>
     <row r="38" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>1540</v>
+        <v>1526</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>8</v>
@@ -10712,10 +10733,10 @@
         <v>567</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>6</v>
@@ -10729,10 +10750,10 @@
         <v>567</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>7</v>
@@ -10746,10 +10767,10 @@
         <v>567</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>9</v>
@@ -10763,10 +10784,10 @@
         <v>567</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>9</v>
@@ -10780,10 +10801,10 @@
         <v>567</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="D43" s="22" t="s">
         <v>9</v>
@@ -10797,10 +10818,10 @@
         <v>567</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>8</v>
@@ -10814,10 +10835,10 @@
         <v>567</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>9</v>
@@ -10828,13 +10849,13 @@
     </row>
     <row r="46" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>1541</v>
+        <v>1527</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="D46" s="22" t="s">
         <v>9</v>
@@ -10848,10 +10869,10 @@
         <v>567</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>1542</v>
+        <v>1528</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="D47" s="22" t="s">
         <v>9</v>
@@ -10865,10 +10886,10 @@
         <v>567</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>1543</v>
+        <v>1529</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>9</v>
@@ -10882,10 +10903,10 @@
         <v>567</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>1045</v>
+        <v>1574</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>6</v>
@@ -10899,10 +10920,10 @@
         <v>567</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="D50" s="22" t="s">
         <v>6</v>
@@ -10916,10 +10937,10 @@
         <v>567</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="C51" s="36" t="s">
-        <v>1544</v>
+        <v>1530</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>9</v>
@@ -10933,10 +10954,10 @@
         <v>567</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>1545</v>
+        <v>1531</v>
       </c>
       <c r="D52" s="22" t="s">
         <v>8</v>
@@ -10950,10 +10971,10 @@
         <v>567</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>1546</v>
+        <v>1532</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>8</v>
@@ -10967,10 +10988,10 @@
         <v>567</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>1547</v>
+        <v>1533</v>
       </c>
       <c r="D54" s="22" t="s">
         <v>6</v>
@@ -10984,10 +11005,10 @@
         <v>567</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>1548</v>
+        <v>1534</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>9</v>
@@ -11001,10 +11022,10 @@
         <v>567</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>1549</v>
+        <v>1535</v>
       </c>
       <c r="D56" s="22" t="s">
         <v>7</v>
@@ -11016,10 +11037,10 @@
     <row r="57" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="16" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>7</v>
@@ -11031,10 +11052,10 @@
     <row r="58" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="16" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>9</v>
@@ -11046,10 +11067,10 @@
     <row r="59" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>6</v>
@@ -11063,10 +11084,10 @@
         <v>567</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>7</v>
@@ -11077,13 +11098,13 @@
     </row>
     <row r="61" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
-        <v>1564</v>
+        <v>1550</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="C61" s="36" t="s">
-        <v>1550</v>
+        <v>1536</v>
       </c>
       <c r="D61" s="20" t="s">
         <v>6</v>
@@ -11097,10 +11118,10 @@
         <v>567</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="C62" s="36" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>8</v>
@@ -11114,10 +11135,10 @@
         <v>567</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="C63" s="36" t="s">
-        <v>1551</v>
+        <v>1537</v>
       </c>
       <c r="D63" s="24" t="s">
         <v>9</v>
@@ -11131,10 +11152,10 @@
         <v>567</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>1565</v>
+        <v>1551</v>
       </c>
       <c r="D64" s="22" t="s">
         <v>8</v>
@@ -11148,10 +11169,10 @@
         <v>567</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>6</v>
@@ -11162,13 +11183,13 @@
     </row>
     <row r="66" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>1552</v>
+        <v>1538</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>1553</v>
+        <v>1539</v>
       </c>
       <c r="D66" s="22" t="s">
         <v>7</v>
@@ -11180,10 +11201,10 @@
     <row r="67" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="B67" s="16" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>6</v>
@@ -11197,10 +11218,10 @@
         <v>567</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>1554</v>
+        <v>1540</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="D68" s="24" t="s">
         <v>7</v>
@@ -11212,10 +11233,10 @@
     <row r="69" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="B69" s="16" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>7</v>
@@ -11236,8 +11257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753DF962-684E-41AD-A09C-76FF210479FD}">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11273,10 +11294,10 @@
         <v>567</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>1526</v>
+        <v>1512</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>7</v>
@@ -11290,10 +11311,10 @@
         <v>567</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>1496</v>
+        <v>1482</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>6</v>
@@ -11307,10 +11328,10 @@
         <v>567</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>1497</v>
+        <v>1483</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>7</v>
@@ -11324,10 +11345,10 @@
         <v>567</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>8</v>
@@ -11341,10 +11362,10 @@
         <v>567</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>8</v>
@@ -11358,10 +11379,10 @@
         <v>567</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>6</v>
@@ -11375,10 +11396,10 @@
         <v>359</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>6</v>
@@ -11392,10 +11413,10 @@
         <v>567</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>8</v>
@@ -11409,10 +11430,10 @@
         <v>567</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>1498</v>
+        <v>1484</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>1499</v>
+        <v>1485</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>6</v>
@@ -11426,10 +11447,10 @@
         <v>567</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>9</v>
@@ -11443,10 +11464,10 @@
         <v>567</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>9</v>
@@ -11460,10 +11481,10 @@
         <v>567</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>6</v>
@@ -11474,10 +11495,10 @@
     </row>
     <row r="14" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="C14" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>8</v>
@@ -11488,10 +11509,10 @@
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1500</v>
+        <v>1486</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>10</v>
@@ -11502,10 +11523,10 @@
     </row>
     <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>1501</v>
+        <v>1487</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1502</v>
+        <v>1488</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>8</v>
@@ -11516,10 +11537,10 @@
     </row>
     <row r="17" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>1503</v>
+        <v>1489</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1504</v>
+        <v>1490</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>10</v>
@@ -11530,10 +11551,10 @@
     </row>
     <row r="18" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>1505</v>
+        <v>1491</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1506</v>
+        <v>1492</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>8</v>
@@ -11544,10 +11565,10 @@
     </row>
     <row r="19" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>1507</v>
+        <v>1493</v>
       </c>
       <c r="C19" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>8</v>
@@ -11558,10 +11579,10 @@
     </row>
     <row r="20" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>1508</v>
+        <v>1494</v>
       </c>
       <c r="C20" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>10</v>
@@ -11572,10 +11593,10 @@
     </row>
     <row r="21" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="C21" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>9</v>
@@ -11586,10 +11607,10 @@
     </row>
     <row r="22" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>1509</v>
+        <v>1495</v>
       </c>
       <c r="C22" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>9</v>
@@ -11600,10 +11621,10 @@
     </row>
     <row r="23" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="C23" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>8</v>
@@ -11614,10 +11635,10 @@
     </row>
     <row r="24" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="C24" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>7</v>
@@ -11628,10 +11649,10 @@
     </row>
     <row r="25" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>1510</v>
+        <v>1496</v>
       </c>
       <c r="C25" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>8</v>
@@ -11642,10 +11663,10 @@
     </row>
     <row r="26" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="C26" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>6</v>
@@ -11656,10 +11677,10 @@
     </row>
     <row r="27" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="C27" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>8</v>
@@ -11670,10 +11691,10 @@
     </row>
     <row r="28" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>1511</v>
+        <v>1497</v>
       </c>
       <c r="C28" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>8</v>
@@ -11684,10 +11705,10 @@
     </row>
     <row r="29" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="C29" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>6</v>
@@ -11698,10 +11719,10 @@
     </row>
     <row r="30" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>1527</v>
+        <v>1513</v>
       </c>
       <c r="C30" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>8</v>
@@ -11712,10 +11733,10 @@
     </row>
     <row r="31" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="C31" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>8</v>
@@ -11726,10 +11747,10 @@
     </row>
     <row r="32" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>1512</v>
+        <v>1498</v>
       </c>
       <c r="C32" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>9</v>
@@ -11740,10 +11761,10 @@
     </row>
     <row r="33" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>1513</v>
+        <v>1499</v>
       </c>
       <c r="C33" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="D33" s="26" t="s">
         <v>6</v>
@@ -11754,10 +11775,10 @@
     </row>
     <row r="34" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="C34" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>7</v>
@@ -11768,10 +11789,10 @@
     </row>
     <row r="35" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>1514</v>
+        <v>1500</v>
       </c>
       <c r="C35" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="D35" s="26" t="s">
         <v>7</v>
@@ -11782,10 +11803,10 @@
     </row>
     <row r="36" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="C36" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="D36" s="26" t="s">
         <v>7</v>
@@ -11796,10 +11817,10 @@
     </row>
     <row r="37" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>1515</v>
+        <v>1501</v>
       </c>
       <c r="C37" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="D37" s="26" t="s">
         <v>9</v>
@@ -11810,10 +11831,10 @@
     </row>
     <row r="38" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>1516</v>
+        <v>1502</v>
       </c>
       <c r="C38" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="D38" s="26" t="s">
         <v>7</v>
@@ -11824,10 +11845,10 @@
     </row>
     <row r="39" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="C39" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="D39" s="26" t="s">
         <v>9</v>
@@ -11838,10 +11859,10 @@
     </row>
     <row r="40" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="C40" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="D40" s="26" t="s">
         <v>6</v>
@@ -11852,10 +11873,10 @@
     </row>
     <row r="41" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>1503</v>
+        <v>1489</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1504</v>
+        <v>1490</v>
       </c>
       <c r="D41" s="26" t="s">
         <v>10</v>
@@ -11869,10 +11890,10 @@
         <v>567</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>1517</v>
+        <v>1503</v>
       </c>
       <c r="D42" s="24" t="s">
         <v>7</v>
@@ -11886,10 +11907,10 @@
         <v>567</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>1518</v>
+        <v>1504</v>
       </c>
       <c r="D43" s="22" t="s">
         <v>7</v>
@@ -11903,10 +11924,10 @@
         <v>567</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>1528</v>
+        <v>1514</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>8</v>
@@ -11920,10 +11941,10 @@
         <v>567</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>1519</v>
+        <v>1505</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>1529</v>
+        <v>1515</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>6</v>
@@ -11937,10 +11958,10 @@
         <v>567</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="D46" s="22" t="s">
         <v>6</v>
@@ -11954,10 +11975,10 @@
         <v>567</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>9</v>
@@ -11968,13 +11989,13 @@
     </row>
     <row r="48" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>1530</v>
+        <v>1516</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>1520</v>
+        <v>1506</v>
       </c>
       <c r="D48" s="22" t="s">
         <v>6</v>
@@ -11988,10 +12009,10 @@
         <v>567</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="D49" s="22" t="s">
         <v>9</v>
@@ -12005,10 +12026,10 @@
         <v>567</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="D50" s="22" t="s">
         <v>7</v>
@@ -12022,10 +12043,10 @@
         <v>567</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>9</v>
@@ -12039,10 +12060,10 @@
         <v>567</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="D52" s="22" t="s">
         <v>6</v>
@@ -12056,10 +12077,10 @@
         <v>567</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="D53" s="22" t="s">
         <v>8</v>
@@ -12073,10 +12094,10 @@
         <v>567</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="D54" s="24" t="s">
         <v>9</v>
@@ -12090,10 +12111,10 @@
         <v>567</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="D55" s="22" t="s">
         <v>8</v>
@@ -12107,10 +12128,10 @@
         <v>567</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>1521</v>
+        <v>1507</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="D56" s="22" t="s">
         <v>6</v>
@@ -12124,10 +12145,10 @@
         <v>567</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="C57" s="36" t="s">
-        <v>1522</v>
+        <v>1508</v>
       </c>
       <c r="D57" s="24" t="s">
         <v>6</v>
@@ -12141,10 +12162,10 @@
         <v>567</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="D58" s="22" t="s">
         <v>6</v>
@@ -12158,10 +12179,10 @@
         <v>567</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>1523</v>
+        <v>1509</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="D59" s="22" t="s">
         <v>7</v>
@@ -12173,10 +12194,10 @@
     <row r="60" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="C60" s="36" t="s">
-        <v>1531</v>
+        <v>1517</v>
       </c>
       <c r="D60" s="24" t="s">
         <v>7</v>
@@ -12188,10 +12209,10 @@
     <row r="61" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
       <c r="B61" s="17" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>6</v>
@@ -12203,10 +12224,10 @@
     <row r="62" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>6</v>
@@ -12218,10 +12239,10 @@
     <row r="63" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="D63" s="24" t="s">
         <v>8</v>
@@ -12233,10 +12254,10 @@
     <row r="64" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="C64" s="36" t="s">
-        <v>1524</v>
+        <v>1510</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>8</v>
@@ -12248,10 +12269,10 @@
     <row r="65" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>1525</v>
+        <v>1511</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>6</v>
@@ -12263,10 +12284,10 @@
     <row r="66" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>8</v>
@@ -12278,10 +12299,10 @@
     <row r="67" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="D67" s="24" t="s">
         <v>7</v>
@@ -12293,10 +12314,10 @@
     <row r="68" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D68" s="24" t="s">
         <v>7</v>
@@ -12308,10 +12329,10 @@
     <row r="69" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="D69" s="24" t="s">
         <v>9</v>
@@ -12323,10 +12344,10 @@
     <row r="70" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="D70" s="24" t="s">
         <v>7</v>
@@ -12338,10 +12359,10 @@
     <row r="71" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="D71" s="24" t="s">
         <v>8</v>
@@ -12355,10 +12376,10 @@
         <v>567</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="C72" s="36" t="s">
-        <v>1522</v>
+        <v>1508</v>
       </c>
       <c r="D72" s="24" t="s">
         <v>6</v>
@@ -12379,8 +12400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972FC825-47B8-4AF9-81CB-D159EC7E9EEB}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12434,7 +12455,7 @@
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1439</v>
+        <v>1425</v>
       </c>
       <c r="B3" t="s">
         <v>475</v>
@@ -12494,7 +12515,7 @@
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="B6" t="s">
         <v>483</v>
@@ -12514,7 +12535,7 @@
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="B7" t="s">
         <v>488</v>
@@ -12682,10 +12703,10 @@
         <v>567</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>8</v>
@@ -12694,7 +12715,7 @@
         <v>64</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12702,10 +12723,10 @@
         <v>567</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>7</v>
@@ -12714,7 +12735,7 @@
         <v>64</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12722,10 +12743,10 @@
         <v>567</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>8</v>
@@ -12734,7 +12755,7 @@
         <v>64</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12742,10 +12763,10 @@
         <v>567</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>10</v>
@@ -12754,7 +12775,7 @@
         <v>64</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12762,10 +12783,10 @@
         <v>567</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>6</v>
@@ -12774,7 +12795,7 @@
         <v>64</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12782,10 +12803,10 @@
         <v>567</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>8</v>
@@ -12794,18 +12815,18 @@
         <v>64</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>567</v>
+        <v>1576</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>808</v>
+        <v>1575</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>6</v>
@@ -12814,7 +12835,7 @@
         <v>64</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12822,10 +12843,10 @@
         <v>567</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>10</v>
@@ -12834,18 +12855,18 @@
         <v>64</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>567</v>
+        <v>1578</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>811</v>
+        <v>1577</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>8</v>
@@ -12854,7 +12875,7 @@
         <v>64</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12862,10 +12883,10 @@
         <v>567</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>8</v>
@@ -12874,7 +12895,7 @@
         <v>64</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12882,10 +12903,10 @@
         <v>567</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>9</v>
@@ -12894,7 +12915,7 @@
         <v>64</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12902,10 +12923,10 @@
         <v>567</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>6</v>
@@ -12914,7 +12935,7 @@
         <v>64</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12922,10 +12943,10 @@
         <v>567</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>6</v>
@@ -12934,7 +12955,7 @@
         <v>64</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12942,10 +12963,10 @@
         <v>567</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>9</v>
@@ -12954,7 +12975,7 @@
         <v>64</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12962,10 +12983,10 @@
         <v>567</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>9</v>
@@ -12974,7 +12995,7 @@
         <v>64</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12982,10 +13003,10 @@
         <v>567</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>10</v>
@@ -12994,7 +13015,7 @@
         <v>64</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13002,10 +13023,10 @@
         <v>567</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>10</v>
@@ -13014,7 +13035,7 @@
         <v>64</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13022,10 +13043,10 @@
         <v>567</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>9</v>
@@ -13034,7 +13055,7 @@
         <v>64</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13042,10 +13063,10 @@
         <v>567</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>8</v>
@@ -13054,12 +13075,12 @@
         <v>64</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>1440</v>
+        <v>1426</v>
       </c>
       <c r="B35" t="s">
         <v>493</v>
@@ -13196,13 +13217,13 @@
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>1441</v>
+        <v>1427</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>7</v>
@@ -13211,7 +13232,7 @@
         <v>60</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13219,10 +13240,10 @@
         <v>567</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>1234</v>
+        <v>1222</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>8</v>
@@ -13231,18 +13252,18 @@
         <v>64</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>1442</v>
+        <v>1428</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>1233</v>
+        <v>1221</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>9</v>
@@ -13251,18 +13272,18 @@
         <v>60</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>1460</v>
+        <v>1446</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>10</v>
@@ -13271,7 +13292,7 @@
         <v>60</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13279,10 +13300,10 @@
         <v>567</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>1235</v>
+        <v>1223</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>7</v>
@@ -13291,18 +13312,18 @@
         <v>60</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>1461</v>
+        <v>1447</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>10</v>
@@ -13311,18 +13332,18 @@
         <v>60</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>1443</v>
+        <v>1429</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>7</v>
@@ -13331,18 +13352,18 @@
         <v>60</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>1444</v>
+        <v>1430</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>10</v>
@@ -13351,18 +13372,18 @@
         <v>60</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>1445</v>
+        <v>1431</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>9</v>
@@ -13371,18 +13392,18 @@
         <v>60</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>1446</v>
+        <v>1432</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>9</v>
@@ -13391,18 +13412,18 @@
         <v>60</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>1462</v>
+        <v>1448</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>10</v>
@@ -13411,7 +13432,7 @@
         <v>60</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13419,10 +13440,10 @@
         <v>567</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>7</v>
@@ -13431,18 +13452,18 @@
         <v>60</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>1447</v>
+        <v>1433</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>6</v>
@@ -13451,18 +13472,18 @@
         <v>60</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>1448</v>
+        <v>1434</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>9</v>
@@ -13471,18 +13492,18 @@
         <v>60</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>1449</v>
+        <v>1435</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>7</v>
@@ -13491,18 +13512,18 @@
         <v>60</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>1450</v>
+        <v>1436</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>8</v>
@@ -13511,7 +13532,7 @@
         <v>60</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13519,10 +13540,10 @@
         <v>567</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>6</v>
@@ -13531,72 +13552,72 @@
         <v>60</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>1451</v>
+        <v>1437</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1452</v>
+        <v>1438</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>1463</v>
+        <v>1449</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>1238</v>
+        <v>1226</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1237</v>
+        <v>1225</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>1236</v>
+        <v>1224</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="B62" t="s">
         <v>499</v>
@@ -13616,7 +13637,7 @@
     </row>
     <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>1453</v>
+        <v>1439</v>
       </c>
       <c r="B63" t="s">
         <v>501</v>
@@ -13656,7 +13677,7 @@
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>1454</v>
+        <v>1440</v>
       </c>
       <c r="B65" t="s">
         <v>506</v>
@@ -13696,7 +13717,7 @@
     </row>
     <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="B67" t="s">
         <v>511</v>
@@ -13739,7 +13760,7 @@
         <v>533</v>
       </c>
       <c r="B69" t="s">
-        <v>1239</v>
+        <v>1227</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>11</v>
@@ -13779,10 +13800,10 @@
         <v>567</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>6</v>
@@ -13791,7 +13812,7 @@
         <v>257</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13799,10 +13820,10 @@
         <v>567</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>9</v>
@@ -13811,18 +13832,18 @@
         <v>257</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>1464</v>
+        <v>1450</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>1467</v>
+        <v>1453</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>7</v>
@@ -13831,18 +13852,18 @@
         <v>257</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>1465</v>
+        <v>1451</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>1455</v>
+        <v>1441</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>7</v>
@@ -13851,7 +13872,7 @@
         <v>257</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13882,7 +13903,7 @@
         <v>514</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1456</v>
+        <v>1442</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>10</v>
@@ -13896,7 +13917,7 @@
     </row>
     <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="B77" t="s">
         <v>515</v>
@@ -13936,7 +13957,7 @@
     </row>
     <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="B79" t="s">
         <v>536</v>
@@ -13976,10 +13997,10 @@
     </row>
     <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1241</v>
+        <v>1229</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>547</v>
@@ -14039,10 +14060,10 @@
         <v>567</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>8</v>
@@ -14051,7 +14072,7 @@
         <v>257</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -14059,10 +14080,10 @@
         <v>567</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>1457</v>
+        <v>1443</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>7</v>
@@ -14071,7 +14092,7 @@
         <v>272</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -14079,10 +14100,10 @@
         <v>567</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>1458</v>
+        <v>1444</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>8</v>
@@ -14091,7 +14112,7 @@
         <v>272</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -14099,10 +14120,10 @@
         <v>567</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>8</v>
@@ -14116,10 +14137,10 @@
         <v>567</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>1459</v>
+        <v>1445</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>10</v>
@@ -14133,10 +14154,10 @@
         <v>567</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>1242</v>
+        <v>1230</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>7</v>
@@ -14145,7 +14166,7 @@
         <v>272</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -14153,10 +14174,10 @@
         <v>567</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>6</v>
@@ -14173,7 +14194,7 @@
         <v>517</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1466</v>
+        <v>1452</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>9</v>
@@ -14198,8 +14219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F237ED9-F30A-4008-A614-4A15D5EDE865}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14232,13 +14253,13 @@
     </row>
     <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>1243</v>
+        <v>1231</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>1298</v>
+        <v>1286</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>8</v>
@@ -14247,18 +14268,18 @@
         <v>60</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>1299</v>
+        <v>1287</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>6</v>
@@ -14267,18 +14288,18 @@
         <v>60</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>1338</v>
+        <v>1324</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>6</v>
@@ -14287,7 +14308,7 @@
         <v>60</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14295,10 +14316,10 @@
         <v>567</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>6</v>
@@ -14307,7 +14328,7 @@
         <v>64</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14315,10 +14336,10 @@
         <v>567</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>6</v>
@@ -14327,16 +14348,16 @@
         <v>64</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>1302</v>
+        <v>1290</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>7</v>
@@ -14345,7 +14366,7 @@
         <v>60</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14353,10 +14374,10 @@
         <v>567</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>1303</v>
+        <v>1291</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>6</v>
@@ -14365,7 +14386,7 @@
         <v>64</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14373,10 +14394,10 @@
         <v>567</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>1304</v>
+        <v>1292</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>8</v>
@@ -14385,7 +14406,7 @@
         <v>60</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14393,10 +14414,10 @@
         <v>567</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>1305</v>
+        <v>1293</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>8</v>
@@ -14405,7 +14426,7 @@
         <v>64</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14413,10 +14434,10 @@
         <v>567</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>7</v>
@@ -14425,7 +14446,7 @@
         <v>64</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14433,10 +14454,10 @@
         <v>567</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>7</v>
@@ -14445,16 +14466,18 @@
         <v>64</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="7" t="s">
+        <v>1580</v>
+      </c>
       <c r="B13" s="7" t="s">
-        <v>1306</v>
+        <v>1579</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>7</v>
@@ -14463,18 +14486,18 @@
         <v>64</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>1247</v>
+        <v>1235</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>1308</v>
+        <v>1295</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>8</v>
@@ -14483,18 +14506,18 @@
         <v>64</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>1250</v>
+        <v>1238</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1249</v>
+        <v>1237</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>8</v>
@@ -14503,18 +14526,18 @@
         <v>60</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>1252</v>
+        <v>1240</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>1310</v>
+        <v>1297</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>7</v>
@@ -14523,18 +14546,18 @@
         <v>60</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>1311</v>
+        <v>1298</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>8</v>
@@ -14543,18 +14566,18 @@
         <v>60</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>1255</v>
+        <v>1243</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>1312</v>
+        <v>1299</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>7</v>
@@ -14563,18 +14586,18 @@
         <v>60</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>1313</v>
+        <v>1300</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>6</v>
@@ -14583,18 +14606,18 @@
         <v>60</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>1314</v>
+        <v>1301</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>8</v>
@@ -14603,18 +14626,18 @@
         <v>60</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>1261</v>
+        <v>1249</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1260</v>
+        <v>1248</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>1314</v>
+        <v>1301</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>9</v>
@@ -14623,18 +14646,18 @@
         <v>60</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>1315</v>
+        <v>1302</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>8</v>
@@ -14643,18 +14666,18 @@
         <v>60</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>1265</v>
+        <v>1253</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>1316</v>
+        <v>1303</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>6</v>
@@ -14663,18 +14686,18 @@
         <v>60</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>1339</v>
+        <v>1325</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>9</v>
@@ -14683,18 +14706,18 @@
         <v>60</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>1340</v>
+        <v>1326</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>8</v>
@@ -14703,7 +14726,7 @@
         <v>60</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14711,10 +14734,10 @@
         <v>567</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>7</v>
@@ -14723,18 +14746,18 @@
         <v>60</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>1341</v>
+        <v>1327</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>6</v>
@@ -14743,18 +14766,18 @@
         <v>60</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>1342</v>
+        <v>1328</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>6</v>
@@ -14763,18 +14786,18 @@
         <v>60</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>1343</v>
+        <v>1329</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>7</v>
@@ -14783,7 +14806,7 @@
         <v>60</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14791,10 +14814,10 @@
         <v>567</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>6</v>
@@ -14803,7 +14826,7 @@
         <v>60</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14811,10 +14834,10 @@
         <v>567</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>6</v>
@@ -14823,18 +14846,18 @@
         <v>60</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>1317</v>
+        <v>1304</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>1366</v>
+        <v>1352</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>9</v>
@@ -14843,16 +14866,16 @@
         <v>60</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>8</v>
@@ -14861,18 +14884,18 @@
         <v>60</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>1318</v>
+        <v>1305</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>1344</v>
+        <v>1330</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>7</v>
@@ -14881,18 +14904,18 @@
         <v>60</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>1345</v>
+        <v>1331</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1092</v>
+        <v>1581</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>1364</v>
+        <v>1350</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>9</v>
@@ -14901,18 +14924,18 @@
         <v>60</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>1346</v>
+        <v>1332</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>1365</v>
+        <v>1351</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>7</v>
@@ -14921,18 +14944,18 @@
         <v>60</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>1319</v>
+        <v>1306</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>7</v>
@@ -14941,18 +14964,18 @@
         <v>60</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>1320</v>
+        <v>1307</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>1321</v>
+        <v>1308</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>9</v>
@@ -14961,7 +14984,7 @@
         <v>60</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14969,10 +14992,10 @@
         <v>567</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>1322</v>
+        <v>1309</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>7</v>
@@ -14981,7 +15004,7 @@
         <v>257</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14989,10 +15012,10 @@
         <v>567</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>1323</v>
+        <v>1310</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>7</v>
@@ -15001,7 +15024,7 @@
         <v>257</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15009,10 +15032,10 @@
         <v>567</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1347</v>
+        <v>1333</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>8</v>
@@ -15021,7 +15044,7 @@
         <v>257</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15029,10 +15052,10 @@
         <v>567</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>8</v>
@@ -15041,18 +15064,18 @@
         <v>257</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>1348</v>
+        <v>1334</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>8</v>
@@ -15061,18 +15084,18 @@
         <v>257</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>1343</v>
+        <v>1329</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>9</v>
@@ -15081,18 +15104,18 @@
         <v>257</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>1267</v>
+        <v>1255</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>1349</v>
+        <v>1335</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>9</v>
@@ -15101,18 +15124,18 @@
         <v>257</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>1324</v>
+        <v>1311</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>6</v>
@@ -15121,18 +15144,18 @@
         <v>257</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>8</v>
@@ -15141,18 +15164,18 @@
         <v>257</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>1325</v>
+        <v>1312</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>6</v>
@@ -15161,18 +15184,18 @@
         <v>257</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>1325</v>
+        <v>1312</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>9</v>
@@ -15181,18 +15204,18 @@
         <v>257</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>1325</v>
+        <v>1312</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>8</v>
@@ -15201,18 +15224,18 @@
         <v>257</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>1326</v>
+        <v>1313</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1327</v>
+        <v>1582</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>8</v>
@@ -15221,18 +15244,18 @@
         <v>257</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>1351</v>
+        <v>1337</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>8</v>
@@ -15241,18 +15264,18 @@
         <v>257</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>7</v>
@@ -15261,18 +15284,18 @@
         <v>257</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>7</v>
@@ -15281,18 +15304,18 @@
         <v>257</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>8</v>
@@ -15301,18 +15324,18 @@
         <v>257</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>8</v>
@@ -15321,18 +15344,18 @@
         <v>257</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>1354</v>
+        <v>1340</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>6</v>
@@ -15341,18 +15364,18 @@
         <v>257</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>1362</v>
+        <v>1348</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>6</v>
@@ -15361,18 +15384,18 @@
         <v>257</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>1363</v>
+        <v>1349</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>6</v>
@@ -15381,18 +15404,18 @@
         <v>257</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>1328</v>
+        <v>1314</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>9</v>
@@ -15401,18 +15424,18 @@
         <v>257</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>6</v>
@@ -15421,7 +15444,7 @@
         <v>257</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15429,10 +15452,10 @@
         <v>567</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>1329</v>
+        <v>1315</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>6</v>
@@ -15441,18 +15464,18 @@
         <v>72</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>567</v>
+        <v>1584</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1202</v>
+        <v>1583</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>1330</v>
+        <v>1316</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>8</v>
@@ -15461,18 +15484,18 @@
         <v>72</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>1356</v>
+        <v>1342</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>1331</v>
+        <v>1317</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>8</v>
@@ -15481,18 +15504,18 @@
         <v>72</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>1357</v>
+        <v>1343</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>7</v>
@@ -15501,18 +15524,18 @@
         <v>72</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>1358</v>
+        <v>1344</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>1332</v>
+        <v>1318</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>9</v>
@@ -15521,18 +15544,18 @@
         <v>72</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>1333</v>
+        <v>1319</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1334</v>
+        <v>1320</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>9</v>
@@ -15541,18 +15564,18 @@
         <v>72</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>1359</v>
+        <v>1345</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>1335</v>
+        <v>1321</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>8</v>
@@ -15561,78 +15584,78 @@
         <v>72</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>1326</v>
+        <v>1313</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>1336</v>
+        <v>1322</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>1336</v>
+        <v>1322</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>7</v>
@@ -15641,18 +15664,18 @@
         <v>272</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>1337</v>
+        <v>1323</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>6</v>
@@ -15661,7 +15684,7 @@
         <v>272</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -15676,8 +15699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECFF656-3193-4EE7-82CA-B504216A6637}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15711,13 +15734,13 @@
     </row>
     <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>1433</v>
+        <v>1419</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>8</v>
@@ -15726,7 +15749,7 @@
         <v>64</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15737,7 +15760,7 @@
         <v>568</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>1408</v>
+        <v>1394</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>6</v>
@@ -15746,7 +15769,7 @@
         <v>64</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15754,10 +15777,10 @@
         <v>567</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1193</v>
+        <v>1585</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>1428</v>
+        <v>1414</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>8</v>
@@ -15766,7 +15789,7 @@
         <v>64</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15777,7 +15800,7 @@
         <v>569</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>1409</v>
+        <v>1395</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>8</v>
@@ -15786,7 +15809,7 @@
         <v>64</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15797,7 +15820,7 @@
         <v>570</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>1367</v>
+        <v>1353</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>7</v>
@@ -15806,7 +15829,7 @@
         <v>64</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15817,7 +15840,7 @@
         <v>576</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>1410</v>
+        <v>1396</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>6</v>
@@ -15826,7 +15849,7 @@
         <v>64</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15837,7 +15860,7 @@
         <v>577</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>1368</v>
+        <v>1354</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>6</v>
@@ -15846,7 +15869,7 @@
         <v>64</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15857,7 +15880,7 @@
         <v>578</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>1369</v>
+        <v>1355</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>8</v>
@@ -15866,7 +15889,7 @@
         <v>64</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15874,10 +15897,10 @@
         <v>567</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1370</v>
+        <v>1356</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>1411</v>
+        <v>1397</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>6</v>
@@ -15886,18 +15909,18 @@
         <v>64</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>567</v>
+        <v>1587</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>579</v>
+        <v>1586</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>1371</v>
+        <v>1357</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>6</v>
@@ -15906,7 +15929,7 @@
         <v>64</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15914,10 +15937,10 @@
         <v>567</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1204</v>
+        <v>1193</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>1372</v>
+        <v>1358</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>6</v>
@@ -15926,7 +15949,7 @@
         <v>64</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15934,10 +15957,10 @@
         <v>567</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>1373</v>
+        <v>1359</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>7</v>
@@ -15946,7 +15969,7 @@
         <v>64</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15954,10 +15977,10 @@
         <v>567</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>1412</v>
+        <v>1398</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>8</v>
@@ -15966,7 +15989,7 @@
         <v>64</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15974,10 +15997,10 @@
         <v>567</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>1374</v>
+        <v>1360</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>8</v>
@@ -15986,7 +16009,7 @@
         <v>64</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15994,10 +16017,10 @@
         <v>567</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>1413</v>
+        <v>1399</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>6</v>
@@ -16006,7 +16029,7 @@
         <v>64</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16014,10 +16037,10 @@
         <v>567</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>585</v>
+        <v>1588</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>1375</v>
+        <v>1361</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>7</v>
@@ -16026,18 +16049,18 @@
         <v>64</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>567</v>
+        <v>1590</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>587</v>
+        <v>1589</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>1429</v>
+        <v>1415</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>7</v>
@@ -16046,7 +16069,7 @@
         <v>64</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16054,10 +16077,10 @@
         <v>567</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>1376</v>
+        <v>1362</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>8</v>
@@ -16066,7 +16089,7 @@
         <v>64</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16074,10 +16097,10 @@
         <v>567</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1205</v>
+        <v>1194</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>1414</v>
+        <v>1400</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>8</v>
@@ -16086,18 +16109,18 @@
         <v>64</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>567</v>
+        <v>1592</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1206</v>
+        <v>1591</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>1377</v>
+        <v>1363</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>8</v>
@@ -16106,7 +16129,7 @@
         <v>64</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16114,10 +16137,10 @@
         <v>567</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>1415</v>
+        <v>1401</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>6</v>
@@ -16126,7 +16149,7 @@
         <v>64</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16134,10 +16157,10 @@
         <v>567</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>1378</v>
+        <v>1364</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>7</v>
@@ -16146,7 +16169,7 @@
         <v>64</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16154,10 +16177,10 @@
         <v>567</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>1379</v>
+        <v>1365</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>7</v>
@@ -16166,7 +16189,7 @@
         <v>64</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16174,10 +16197,10 @@
         <v>567</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1194</v>
+        <v>1593</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>1380</v>
+        <v>1366</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>7</v>
@@ -16186,7 +16209,7 @@
         <v>64</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16194,10 +16217,10 @@
         <v>567</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>1381</v>
+        <v>1367</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>6</v>
@@ -16206,7 +16229,7 @@
         <v>64</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16214,10 +16237,10 @@
         <v>567</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>1416</v>
+        <v>1402</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>6</v>
@@ -16226,7 +16249,7 @@
         <v>64</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16234,10 +16257,10 @@
         <v>567</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1195</v>
+        <v>1594</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>1417</v>
+        <v>1403</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>6</v>
@@ -16246,7 +16269,7 @@
         <v>64</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16254,10 +16277,10 @@
         <v>567</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>6</v>
@@ -16266,7 +16289,7 @@
         <v>64</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16274,10 +16297,10 @@
         <v>567</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>8</v>
@@ -16286,7 +16309,7 @@
         <v>64</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16294,10 +16317,10 @@
         <v>567</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>6</v>
@@ -16306,7 +16329,7 @@
         <v>64</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16314,10 +16337,10 @@
         <v>567</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>8</v>
@@ -16326,7 +16349,7 @@
         <v>64</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16334,10 +16357,10 @@
         <v>567</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>9</v>
@@ -16346,18 +16369,18 @@
         <v>64</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>1418</v>
+        <v>1404</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>6</v>
@@ -16366,7 +16389,7 @@
         <v>64</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16374,10 +16397,10 @@
         <v>567</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>6</v>
@@ -16386,7 +16409,7 @@
         <v>64</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16394,10 +16417,10 @@
         <v>567</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>1382</v>
+        <v>1368</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>9</v>
@@ -16406,7 +16429,7 @@
         <v>64</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16414,10 +16437,10 @@
         <v>567</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>9</v>
@@ -16426,7 +16449,7 @@
         <v>64</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16434,10 +16457,10 @@
         <v>567</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>1196</v>
+        <v>1186</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>7</v>
@@ -16446,7 +16469,7 @@
         <v>64</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16454,10 +16477,10 @@
         <v>567</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1207</v>
+        <v>1195</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>1197</v>
+        <v>1187</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>8</v>
@@ -16466,7 +16489,7 @@
         <v>64</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16477,7 +16500,7 @@
         <v>571</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>1383</v>
+        <v>1369</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>7</v>
@@ -16486,7 +16509,7 @@
         <v>60</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16497,7 +16520,7 @@
         <v>573</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>1384</v>
+        <v>1370</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>8</v>
@@ -16506,7 +16529,7 @@
         <v>60</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16517,7 +16540,7 @@
         <v>575</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>1419</v>
+        <v>1405</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>8</v>
@@ -16531,10 +16554,10 @@
         <v>567</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1208</v>
+        <v>1196</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>1385</v>
+        <v>1371</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>7</v>
@@ -16543,7 +16566,7 @@
         <v>60</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16551,10 +16574,10 @@
         <v>567</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1209</v>
+        <v>1197</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>1386</v>
+        <v>1372</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>6</v>
@@ -16563,7 +16586,7 @@
         <v>60</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16571,10 +16594,10 @@
         <v>567</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>1381</v>
+        <v>1367</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>6</v>
@@ -16583,7 +16606,7 @@
         <v>60</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16591,10 +16614,10 @@
         <v>567</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>1387</v>
+        <v>1373</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>8</v>
@@ -16603,7 +16626,7 @@
         <v>60</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16611,10 +16634,10 @@
         <v>567</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>1388</v>
+        <v>1374</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>7</v>
@@ -16623,7 +16646,7 @@
         <v>60</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16631,10 +16654,10 @@
         <v>567</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>1381</v>
+        <v>1367</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>6</v>
@@ -16643,18 +16666,18 @@
         <v>60</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>1389</v>
+        <v>1375</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>1390</v>
+        <v>1376</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>6</v>
@@ -16663,7 +16686,7 @@
         <v>60</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16671,10 +16694,10 @@
         <v>567</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>9</v>
@@ -16683,18 +16706,18 @@
         <v>60</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>1420</v>
+        <v>1406</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1211</v>
+        <v>1199</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>7</v>
@@ -16703,18 +16726,18 @@
         <v>60</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>1421</v>
+        <v>1407</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1212</v>
+        <v>1200</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>9</v>
@@ -16723,18 +16746,18 @@
         <v>60</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>9</v>
@@ -16743,7 +16766,7 @@
         <v>60</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16751,10 +16774,10 @@
         <v>567</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>1391</v>
+        <v>1377</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>6</v>
@@ -16763,7 +16786,7 @@
         <v>60</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16771,10 +16794,10 @@
         <v>567</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>9</v>
@@ -16783,7 +16806,7 @@
         <v>60</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16791,10 +16814,10 @@
         <v>567</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>9</v>
@@ -16803,7 +16826,7 @@
         <v>60</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16811,10 +16834,10 @@
         <v>567</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>6</v>
@@ -16823,7 +16846,7 @@
         <v>60</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16831,10 +16854,10 @@
         <v>567</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>7</v>
@@ -16843,7 +16866,7 @@
         <v>60</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16851,10 +16874,10 @@
         <v>567</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>7</v>
@@ -16863,7 +16886,7 @@
         <v>60</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16871,10 +16894,10 @@
         <v>567</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>7</v>
@@ -16883,18 +16906,18 @@
         <v>60</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>1392</v>
+        <v>1378</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>6</v>
@@ -16903,7 +16926,7 @@
         <v>60</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16911,10 +16934,10 @@
         <v>567</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1393</v>
+        <v>1379</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>7</v>
@@ -16923,7 +16946,7 @@
         <v>60</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16931,10 +16954,10 @@
         <v>567</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>6</v>
@@ -16943,7 +16966,7 @@
         <v>60</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16951,10 +16974,10 @@
         <v>567</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>1394</v>
+        <v>1380</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>6</v>
@@ -16963,7 +16986,7 @@
         <v>60</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16971,10 +16994,10 @@
         <v>567</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>8</v>
@@ -16983,7 +17006,7 @@
         <v>60</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16991,10 +17014,10 @@
         <v>567</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>8</v>
@@ -17003,7 +17026,7 @@
         <v>60</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17011,10 +17034,10 @@
         <v>567</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>6</v>
@@ -17023,7 +17046,7 @@
         <v>60</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17034,7 +17057,7 @@
         <v>574</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>1395</v>
+        <v>1381</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>7</v>
@@ -17043,7 +17066,7 @@
         <v>257</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17051,10 +17074,10 @@
         <v>567</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>8</v>
@@ -17063,18 +17086,18 @@
         <v>257</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>1422</v>
+        <v>1408</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>7</v>
@@ -17083,18 +17106,18 @@
         <v>257</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>1434</v>
+        <v>1420</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>1213</v>
+        <v>1201</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>8</v>
@@ -17103,18 +17126,18 @@
         <v>257</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>1423</v>
+        <v>1409</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>1396</v>
+        <v>1382</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>9</v>
@@ -17123,18 +17146,18 @@
         <v>257</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>1424</v>
+        <v>1410</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>1198</v>
+        <v>1188</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>6</v>
@@ -17143,7 +17166,7 @@
         <v>257</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17151,10 +17174,10 @@
         <v>567</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>9</v>
@@ -17163,18 +17186,18 @@
         <v>257</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>1425</v>
+        <v>1411</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>1214</v>
+        <v>1202</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>7</v>
@@ -17183,7 +17206,7 @@
         <v>257</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17191,10 +17214,10 @@
         <v>567</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>9</v>
@@ -17203,7 +17226,7 @@
         <v>257</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17211,10 +17234,10 @@
         <v>567</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>7</v>
@@ -17223,7 +17246,7 @@
         <v>257</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17231,10 +17254,10 @@
         <v>567</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>1397</v>
+        <v>1383</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>6</v>
@@ -17243,7 +17266,7 @@
         <v>257</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17251,10 +17274,10 @@
         <v>567</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>6</v>
@@ -17263,7 +17286,7 @@
         <v>257</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17271,10 +17294,10 @@
         <v>567</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>1398</v>
+        <v>1384</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>6</v>
@@ -17283,18 +17306,18 @@
         <v>257</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>1426</v>
+        <v>1412</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>1199</v>
+        <v>1189</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>6</v>
@@ -17303,18 +17326,18 @@
         <v>257</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>1430</v>
+        <v>1416</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>8</v>
@@ -17323,18 +17346,18 @@
         <v>257</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>1435</v>
+        <v>1421</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>6</v>
@@ -17343,7 +17366,7 @@
         <v>257</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17351,10 +17374,10 @@
         <v>567</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>1399</v>
+        <v>1385</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>9</v>
@@ -17363,7 +17386,7 @@
         <v>257</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17371,10 +17394,10 @@
         <v>567</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>1400</v>
+        <v>1386</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>8</v>
@@ -17383,7 +17406,7 @@
         <v>257</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17391,10 +17414,10 @@
         <v>567</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>1401</v>
+        <v>1387</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>8</v>
@@ -17403,7 +17426,7 @@
         <v>257</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17411,10 +17434,10 @@
         <v>567</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>1215</v>
+        <v>1203</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>1402</v>
+        <v>1388</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>6</v>
@@ -17423,7 +17446,7 @@
         <v>257</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17431,10 +17454,10 @@
         <v>567</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>6</v>
@@ -17443,18 +17466,18 @@
         <v>257</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>1427</v>
+        <v>1413</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>1436</v>
+        <v>1422</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>1381</v>
+        <v>1367</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>6</v>
@@ -17463,18 +17486,18 @@
         <v>72</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>1404</v>
+        <v>1390</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>572</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>1405</v>
+        <v>1391</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>8</v>
@@ -17483,18 +17506,18 @@
         <v>72</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>1431</v>
+        <v>1417</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>8</v>
@@ -17503,18 +17526,18 @@
         <v>72</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>1432</v>
+        <v>1418</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>7</v>
@@ -17523,18 +17546,18 @@
         <v>72</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>1437</v>
+        <v>1423</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>7</v>
@@ -17543,7 +17566,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17551,10 +17574,10 @@
         <v>567</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>1216</v>
+        <v>1204</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>9</v>
@@ -17563,7 +17586,7 @@
         <v>72</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17571,10 +17594,10 @@
         <v>567</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>9</v>
@@ -17583,18 +17606,18 @@
         <v>72</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>1406</v>
+        <v>1392</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>7</v>
@@ -17603,7 +17626,7 @@
         <v>272</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17611,10 +17634,10 @@
         <v>567</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>1391</v>
+        <v>1377</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>6</v>
@@ -17623,7 +17646,7 @@
         <v>273</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17631,10 +17654,10 @@
         <v>567</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>1391</v>
+        <v>1377</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>6</v>
@@ -17643,18 +17666,18 @@
         <v>273</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>1407</v>
+        <v>1393</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>1438</v>
+        <v>1424</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>1391</v>
+        <v>1377</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>6</v>
@@ -17663,7 +17686,7 @@
         <v>273</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17671,10 +17694,10 @@
         <v>567</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>1391</v>
+        <v>1377</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>6</v>
@@ -17683,7 +17706,7 @@
         <v>273</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -17698,8 +17721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E25D538-4F4B-4C0B-8750-97F4E78136A7}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17733,7 +17756,7 @@
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>1468</v>
+        <v>1454</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>26</v>
@@ -17927,7 +17950,7 @@
         <v>339</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1217</v>
+        <v>1205</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>340</v>
@@ -17947,7 +17970,7 @@
         <v>342</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1218</v>
+        <v>1206</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>341</v>
@@ -17984,10 +18007,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1219</v>
+        <v>1207</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1469</v>
+        <v>1455</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>8</v>
@@ -18202,7 +18225,7 @@
     </row>
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>1268</v>
+        <v>1256</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>46</v>
@@ -18219,7 +18242,7 @@
     </row>
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>1470</v>
+        <v>1456</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>50</v>
@@ -18259,7 +18282,7 @@
         <v>15</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>16</v>
@@ -18396,7 +18419,7 @@
         <v>327</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>1221</v>
+        <v>1209</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>75</v>
@@ -18484,7 +18507,7 @@
         <v>343</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>1222</v>
+        <v>1210</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>344</v>
@@ -18512,8 +18535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F5154C-15D6-451D-B6E6-85A32715717E}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18634,7 +18657,7 @@
     </row>
     <row r="7" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>310</v>
@@ -18665,7 +18688,7 @@
     </row>
     <row r="9" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>312</v>
@@ -18716,7 +18739,7 @@
     </row>
     <row r="12" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>1271</v>
+        <v>1259</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>124</v>
@@ -18733,10 +18756,10 @@
     </row>
     <row r="13" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>1273</v>
+        <v>1261</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>311</v>
@@ -18804,7 +18827,7 @@
     </row>
     <row r="17" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>1279</v>
+        <v>1267</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>392</v>
@@ -18821,7 +18844,7 @@
     </row>
     <row r="18" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>1471</v>
+        <v>1457</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>406</v>
@@ -18835,7 +18858,7 @@
     </row>
     <row r="19" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>1278</v>
+        <v>1266</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>407</v>
@@ -18849,7 +18872,7 @@
     </row>
     <row r="20" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>1472</v>
+        <v>1458</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>408</v>
@@ -18863,7 +18886,7 @@
     </row>
     <row r="21" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>1277</v>
+        <v>1265</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>412</v>
@@ -18878,7 +18901,7 @@
     <row r="22" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>1276</v>
+        <v>1264</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>100</v>
@@ -18896,7 +18919,7 @@
     <row r="23" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
-        <v>1274</v>
+        <v>1262</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>105</v>
@@ -18914,7 +18937,7 @@
     <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" t="s">
-        <v>1275</v>
+        <v>1263</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>108</v>
@@ -18948,7 +18971,7 @@
     </row>
     <row r="26" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>1473</v>
+        <v>1459</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>119</v>
@@ -18985,7 +19008,7 @@
     </row>
     <row r="28" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1280</v>
+        <v>1268</v>
       </c>
       <c r="B28" t="s">
         <v>315</v>
@@ -19113,7 +19136,7 @@
     </row>
     <row r="35" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>1474</v>
+        <v>1460</v>
       </c>
       <c r="B35" t="s">
         <v>109</v>
@@ -19173,7 +19196,7 @@
     </row>
     <row r="38" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>1475</v>
+        <v>1461</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>131</v>
@@ -19190,7 +19213,7 @@
     </row>
     <row r="39" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>1476</v>
+        <v>1462</v>
       </c>
       <c r="B39" t="s">
         <v>396</v>
@@ -19207,13 +19230,13 @@
     </row>
     <row r="40" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1477</v>
+        <v>1463</v>
       </c>
       <c r="B40" t="s">
         <v>402</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1478</v>
+        <v>1464</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
@@ -19224,7 +19247,7 @@
     </row>
     <row r="41" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>1479</v>
+        <v>1465</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>114</v>
@@ -19251,8 +19274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5992480-332C-4A20-A071-EB6B406AED48}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19283,7 +19306,7 @@
     </row>
     <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1281</v>
+        <v>1269</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>165</v>
@@ -19300,7 +19323,7 @@
     </row>
     <row r="3" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1284</v>
+        <v>1272</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>293</v>
@@ -19334,7 +19357,7 @@
     </row>
     <row r="5" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>1283</v>
+        <v>1271</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>134</v>
@@ -19351,7 +19374,7 @@
     </row>
     <row r="6" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>1282</v>
+        <v>1270</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>306</v>
@@ -19368,7 +19391,7 @@
     </row>
     <row r="7" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>1285</v>
+        <v>1273</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>423</v>
@@ -19399,7 +19422,7 @@
     </row>
     <row r="9" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>1287</v>
+        <v>1275</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>431</v>
@@ -19413,7 +19436,7 @@
     </row>
     <row r="10" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>1286</v>
+        <v>1274</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>134</v>
@@ -19427,7 +19450,7 @@
     </row>
     <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>1289</v>
+        <v>1277</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>144</v>
@@ -19444,7 +19467,7 @@
     </row>
     <row r="12" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>1290</v>
+        <v>1278</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>148</v>
@@ -19461,7 +19484,7 @@
     </row>
     <row r="13" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>1288</v>
+        <v>1276</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>153</v>
@@ -19481,7 +19504,7 @@
         <v>160</v>
       </c>
       <c r="B14" t="s">
-        <v>1223</v>
+        <v>1211</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>161</v>
@@ -19618,7 +19641,7 @@
     </row>
     <row r="21" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>1291</v>
+        <v>1279</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>307</v>
@@ -19680,7 +19703,7 @@
     </row>
     <row r="25" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>1292</v>
+        <v>1280</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>424</v>
@@ -19711,7 +19734,7 @@
     </row>
     <row r="27" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>1293</v>
+        <v>1281</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>432</v>
@@ -19742,7 +19765,7 @@
     </row>
     <row r="29" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>1480</v>
+        <v>1466</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>436</v>
@@ -19759,7 +19782,7 @@
         <v>353</v>
       </c>
       <c r="B30" t="s">
-        <v>1481</v>
+        <v>1467</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>438</v>
@@ -19773,7 +19796,7 @@
     </row>
     <row r="31" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>1294</v>
+        <v>1282</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>442</v>
@@ -19878,7 +19901,7 @@
     </row>
     <row r="37" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>1295</v>
+        <v>1283</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>149</v>
